--- a/biology/Médecine/District_hospitalier_de_Laponie/District_hospitalier_de_Laponie.xlsx
+++ b/biology/Médecine/District_hospitalier_de_Laponie/District_hospitalier_de_Laponie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le District hospitalier de Laponie (finnois : Lapin sairaanhoitopiiri, sigle LSHP) est un district hospitalier de la Laponie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le District hospitalier de Laponie (finnois : Lapin sairaanhoitopiiri, sigle LSHP) est un district hospitalier de la Laponie.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, le district emploie 1782 permanent dont 181 médecins et 100-200 personnels temporaires[1].	
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, le district emploie 1782 permanent dont 181 médecins et 100-200 personnels temporaires.	
 La population du district est de 117 360 habitants au 31 décembre 2018.
-Chaque année, le district accueille environ 1 800 000 voyageurs[1].
+Chaque année, le district accueille environ 1 800 000 voyageurs.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Municipalités membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les municipalités membres de LSHP sont[2]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les municipalités membres de LSHP sont:
 Enontekiö
 Inari
 Kemijärvi
@@ -590,9 +606,11 @@
           <t>Hôpitaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les établissements hospitaliers de LSHP sont[2]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les établissements hospitaliers de LSHP sont:
 Hôpital central de Laponie, Rovaniemi
 Hôpital universitaire, Oulu</t>
         </is>
